--- a/biology/Zoologie/Gardaland/Gardaland.xlsx
+++ b/biology/Zoologie/Gardaland/Gardaland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gardaland est un parc à thèmes italien, situé à Castelnuovo del Garda en Vénétie. Il est adjacent au lac de Garde, duquel il tire son nom.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Propriété du groupe Merlin Entertainments, ce parc possède un choix d'attractions très varié (montagnes russes, attractions aquatiques, parcours scénique, etc.)
 Gardaland est composé de 34 attractions, six théâtres et aires de spectacles, 19 boutiques, seize bars et restaurants ainsi que six kiosques.
@@ -554,7 +568,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondé en 1975, Gardaland devint rapidement l'un des parcs à thèmes italiens les plus célèbres. Son fondateur, Livio Furini était un entrepreneur local qui fut fasciné par Disneyland au cours d'un voyage aux États-Unis.
 Le parc a ouvert 19 juillet 1975, après près de cinq mois de travaux, couvrant une superficie de 90 000 mètres2. Pendant la première année, quelque 100 000 visiteurs ont visité Gardaland.
@@ -586,44 +602,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Principales attractions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Montagnes russes
-Attractions aquatiques
-Parcours scéniques
-Autres Attractions
-Anciennes montagnes russes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Gardaland</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gardaland</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Gardaland Sea Life</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Inauguré le 1er juin 2008, il s'agit du 28e Sea Life au monde et du premier ouvert en Italie par Merlin Entertainments, la société qui gère Gardaland depuis 2007. Luxueusement scénarisé, construit sur deux étages et presque entièrement couvert (à l'exception du bassin des otaries), il est une des œuvres les plus volumineuses de ce type avec ses 3 500 mètres2.
 La visite, nécessitant environ 2 heures, présente 35 bassins de types et tailles différents ainsi que des aquariums contenant plus de 5 000 spécimens aquatiques provenant de tout autour du globe dont la mer Rouge, l'océan Indien, le lac de Garde et la rivière Sarca. Il est également possible de vivre des expériences interactives, comme avec les bassins tactiles ou d'aller dans la petite salle de cinéma.
@@ -634,31 +618,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Gardaland</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gardaland</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Gardaland Hotel</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé à 800 mètres du parc d'attractions, cet hôtel de style Nouvelle-Angleterre a accueilli ses premiers clients en 2004. Les quatre bâtiments imposants qui le composent offrent 236 chambres, cinq suites junior, six suites, cinq salles de réunion, restaurant, bar, boutiques, deux aires de jeux, spectacles avec les mascottes ou les artistes de Gardaland, piscine de 300 mètres2 avec jacuzzi et pataugeoire. S'ils ne désirent pas s'y rendre à pieds, une navette de bus dépose gratuitement les clients de l'hôtel à l'entrée du parc à thèmes.
 L'hôtel vise la clientèle familiale et la clientèle d'affaires. Le but est de prolonger la visite du parc et/ou de la combiner avec d'autres attractions touristiques telles le lac de Garde ou la ville de Vérone. Il est à noter que le complexe CanevaWorld Resort et son parc d'attractions Movieland Studios se situent à cinq minutes de route de Gardaland.
@@ -667,31 +653,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Gardaland</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gardaland</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Gardaland Waterpark</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancien parc aquatique Aquatica Milan a été acheté par Merlin Entertainments et a ouvert sous le nom de Gardaland Waterpark depuis la saison 2007. Situé sur la périphérie ouest de Milan, il est composé sur ses 100 000 mètres2 d'une quinzaine de toboggans et bassins ainsi qu'un solarium, terrains de volley sur sable et de basketball.
 En plus de ses attractions, Gardaland Waterpark est équipé d'un bar, d'un restaurant et de deux boites de nuit.
